--- a/Assets/StreamingAssets/TestData.xlsx
+++ b/Assets/StreamingAssets/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Alpha</t>
   </si>
@@ -29,19 +29,304 @@
     <t>Delta</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -78,7 +363,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -386,41 +676,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -428,44 +1042,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1320</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>295</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>700</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>367</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
